--- a/data_directory/MarketComposition.xlsx
+++ b/data_directory/MarketComposition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\Documents\GitHub\Mean-CVaR_Portfolio_with_Mixture-Copulas\data_directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C79CFC-DA9F-4A5F-A1AE-9F9FF5C152BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB16010-3CE5-424D-BAA2-C748B87B8FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FBF3351-9DD2-4860-8026-69584A254B29}"/>
   </bookViews>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>LWSA3</t>
-  </si>
-  <si>
-    <t>VIIA3</t>
   </si>
   <si>
     <t>ALPA4</t>
@@ -570,9 +567,6 @@
     <t>CSTB4</t>
   </si>
   <si>
-    <t>SMSL3</t>
-  </si>
-  <si>
     <t>CRUZ3</t>
   </si>
   <si>
@@ -676,6 +670,12 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>SMLS3</t>
+  </si>
+  <si>
+    <t>BHIA3</t>
   </si>
 </sst>
 </file>
@@ -1030,15 +1030,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823CC5A-4F3F-4B08-B225-3405FDCD80BC}">
   <dimension ref="A1:HF301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EW1" workbookViewId="0">
-      <selection activeCell="FF1" sqref="FF1:FF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="BX2" sqref="BX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:214" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1263,421 +1263,421 @@
         <v>73</v>
       </c>
       <c r="BX1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EI1" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FO1" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>170</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>171</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>172</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>173</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FU1" t="s">
         <v>174</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FV1" t="s">
         <v>175</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FW1" t="s">
         <v>176</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FX1" t="s">
+        <v>212</v>
+      </c>
+      <c r="FY1" t="s">
         <v>177</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FZ1" t="s">
         <v>178</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="GA1" t="s">
         <v>179</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GB1" t="s">
         <v>180</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GC1" t="s">
         <v>181</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GD1" t="s">
         <v>182</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GE1" t="s">
         <v>183</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GF1" t="s">
         <v>184</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GG1" t="s">
         <v>185</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GH1" t="s">
         <v>186</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="GI1" t="s">
         <v>187</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="GJ1" t="s">
         <v>188</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="GK1" t="s">
         <v>189</v>
       </c>
-      <c r="GJ1" t="s">
+      <c r="GL1" t="s">
         <v>190</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="GM1" t="s">
         <v>191</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="GN1" t="s">
         <v>192</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="GO1" t="s">
         <v>193</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="GP1" t="s">
         <v>194</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="GQ1" t="s">
         <v>195</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="GR1" t="s">
         <v>196</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="GS1" t="s">
         <v>197</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="GT1" t="s">
         <v>198</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="GU1" t="s">
         <v>199</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="GV1" t="s">
         <v>200</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="GW1" t="s">
         <v>201</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="GX1" t="s">
         <v>202</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="GY1" t="s">
         <v>203</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="GZ1" t="s">
         <v>204</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="HA1" t="s">
         <v>205</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="HB1" t="s">
         <v>206</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HC1" t="s">
         <v>207</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="HD1" t="s">
         <v>208</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="HE1" t="s">
         <v>209</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="HF1" t="s">
         <v>210</v>
-      </c>
-      <c r="HE1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:214" x14ac:dyDescent="0.3">
